--- a/assignment/1/prog1_mandelbrot_threads/prog1_speedup_compare.xlsx
+++ b/assignment/1/prog1_mandelbrot_threads/prog1_speedup_compare.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengqiaoyu/Documents/Learning/CMU/Semester_2/Parallel_Computing_15-618/repo/assignment/1_2016spring/prog1_mandelbrot_threads/write-up/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengqiaoyu/Documents/Learning/CMU/2_Semester/Parallel_Computing_15-618/repo/assignment/1/prog1_mandelbrot_threads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="1800" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>view 1</t>
+    <t>view1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view 2</t>
+    <t>view2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,23 +115,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speedup compared to the reference sequential</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Speedup compared to the reference sequential implementation</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -149,16 +151,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -168,8 +170,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -180,13 +182,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>view 1</c:v>
+                  <c:v>view1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -195,7 +197,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -214,7 +228,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
@@ -227,7 +241,7 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -243,7 +257,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
@@ -256,48 +270,48 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>工作表1!$B$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>工作表1!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.93</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.71</c:v>
+                  <c:v>5.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.49</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -309,13 +323,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>view 2</c:v>
+                  <c:v>view2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -324,7 +338,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -343,7 +369,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
@@ -356,7 +382,7 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -372,7 +398,7 @@
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
@@ -385,52 +411,52 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>工作表1!$B$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>工作表1!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.94</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.72</c:v>
+                  <c:v>5.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>8.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -438,12 +464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1380588368"/>
-        <c:axId val="1380590688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1380588368"/>
+        <c:axId val="-993193056"/>
+        <c:axId val="-993045600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-993193056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,10 +478,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -464,22 +488,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -487,9 +495,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -501,9 +509,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -516,15 +524,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1380590688"/>
+        <c:crossAx val="-993045600"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1380590688"/>
+        <c:axId val="-993045600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,10 +539,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -545,14 +549,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -563,7 +629,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -576,22 +642,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1380588368"/>
+        <c:crossAx val="-993193056"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -616,7 +672,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -636,11 +692,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -664,7 +720,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -709,25 +764,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -735,7 +790,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -743,37 +821,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -810,45 +865,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -860,26 +905,22 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -903,15 +944,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -919,14 +961,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -937,7 +979,116 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -945,18 +1096,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -964,98 +1115,58 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="51000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1063,114 +1174,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1179,13 +1194,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1194,7 +1210,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1206,7 +1222,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1214,9 +1230,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1228,11 +1244,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1240,20 +1267,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -1263,82 +1283,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>814038</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="组 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4648200" y="774700"/>
+          <a:ext cx="6897338" cy="6858000"/>
+          <a:chOff x="4648200" y="774700"/>
+          <a:chExt cx="6897338" cy="6858000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="图表 2"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4648200" y="774700"/>
+          <a:ext cx="6897338" cy="6858000"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直线箭头连接符 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5930900" y="1320800"/>
+            <a:ext cx="2717800" cy="4546600"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.16449</cdr:x>
-      <cdr:y>0.12146</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.86355</cdr:x>
-      <cdr:y>0.67746</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="直线箭头连接符 2"/>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="1117600" y="571500"/>
-          <a:ext cx="4749800" cy="2616200"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1607,23 +1630,23 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1631,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="C2">
-        <v>1.93</v>
+        <v>3.65</v>
       </c>
       <c r="D2">
-        <v>2.71</v>
+        <v>5.86</v>
       </c>
       <c r="E2">
-        <v>3.49</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1648,22 +1671,21 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.99</v>
       </c>
       <c r="C3">
-        <v>1.94</v>
+        <v>3.9</v>
       </c>
       <c r="D3">
-        <v>2.72</v>
+        <v>5.97</v>
       </c>
       <c r="E3">
-        <v>3.5</v>
+        <v>8.3699999999999992</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>